--- a/resources/keyword_dict_annotated_expanded.xlsx
+++ b/resources/keyword_dict_annotated_expanded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alertings</t>
+          <t>alerts</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alerts</t>
+          <t>orient</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>oriented</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>oriented</t>
+          <t>orienting</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>orienting</t>
+          <t>orients</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,19 +544,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>orients</t>
+          <t>ate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ate</t>
+          <t>ate_in</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ate_ins</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bit</t>
+          <t>ate_out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bite</t>
+          <t>ate_outed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bites</t>
+          <t>ate_outing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>biting</t>
+          <t>ate_outs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bitings</t>
+          <t>ate_up</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bitten</t>
+          <t>ate_upped</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>break_bread</t>
+          <t>ate_upping</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>ate_ups</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>breakfasted</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>breakfasting</t>
+          <t>bite</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>breakfasts</t>
+          <t>bites</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>brunch</t>
+          <t>biting</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>brunches</t>
+          <t>bitten</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>consume</t>
+          <t>break_bread</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>consumed</t>
+          <t>break_breads</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>consumes</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>consuming</t>
+          <t>breakfasted</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>consumption</t>
+          <t>breakfasting</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>consumptions</t>
+          <t>breakfasts</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>coprophagies</t>
+          <t>breaking_bread</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>coprophagy</t>
+          <t>breaking_breads</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>devour</t>
+          <t>breaks_bread</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>devoured</t>
+          <t>breaks_breads</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>devouring</t>
+          <t>broke_bread</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>devours</t>
+          <t>broke_breads</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dine</t>
+          <t>broken_bread</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dined</t>
+          <t>broken_breads</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dines</t>
+          <t>brunch</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dining</t>
+          <t>brunches</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dinings</t>
+          <t>consume</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>eat</t>
+          <t>consumed</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>eat_in</t>
+          <t>consumes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>eat_out</t>
+          <t>consuming</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>eat_up</t>
+          <t>consumption</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>eaten</t>
+          <t>consumptions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t>coprophagies</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>eatings</t>
+          <t>coprophagy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>eats</t>
+          <t>devour</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>eatss</t>
+          <t>devoured</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>engorgement</t>
+          <t>devouring</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>engorgements</t>
+          <t>devours</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>feast</t>
+          <t>dine</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>feasted</t>
+          <t>dined</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>feasting</t>
+          <t>dines</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>feastings</t>
+          <t>dining</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>feasts</t>
+          <t>dinings</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fed</t>
+          <t>eat</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>feds</t>
+          <t>eat_in</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>feed</t>
+          <t>eat_ins</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>feeding</t>
+          <t>eat_out</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>feedings</t>
+          <t>eat_outed</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>feeds</t>
+          <t>eat_outing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gluttonize</t>
+          <t>eat_outs</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gobble</t>
+          <t>eat_up</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>gobbled</t>
+          <t>eat_upped</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>gobbles</t>
+          <t>eat_upping</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>gobbling</t>
+          <t>eat_ups</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gorge</t>
+          <t>eaten</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gorged</t>
+          <t>eaten_in</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gorges</t>
+          <t>eaten_ins</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gorging</t>
+          <t>eaten_out</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>gorgings</t>
+          <t>eaten_outed</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>graze</t>
+          <t>eaten_outing</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>grazed</t>
+          <t>eaten_outs</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>grazes</t>
+          <t>eaten_up</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>grazing</t>
+          <t>eaten_upped</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>grazings</t>
+          <t>eaten_upping</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>eaten_ups</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lunched</t>
+          <t>eating</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lunches</t>
+          <t>eating_in</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lunching</t>
+          <t>eating_ins</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lunchings</t>
+          <t>eating_out</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mycophagies</t>
+          <t>eating_outed</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mycophagy</t>
+          <t>eating_outing</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>necrophagia</t>
+          <t>eating_outs</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>necrophagias</t>
+          <t>eating_up</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>nibble</t>
+          <t>eating_upped</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>nibbled</t>
+          <t>eating_upping</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nibbles</t>
+          <t>eating_ups</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>nibbling</t>
+          <t>eatings</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nibblings</t>
+          <t>eats</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nosh</t>
+          <t>eats_in</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>noshed</t>
+          <t>eats_ins</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>noshes</t>
+          <t>eats_out</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>noshing</t>
+          <t>eats_outed</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>omophagia</t>
+          <t>eats_outing</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>omophagias</t>
+          <t>eats_outs</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>peck</t>
+          <t>eats_up</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>pecked</t>
+          <t>eats_upped</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pecking</t>
+          <t>eats_upping</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pecks</t>
+          <t>eats_ups</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>repletion</t>
+          <t>engorgement</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>repletions</t>
+          <t>engorgements</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ruminate</t>
+          <t>feast</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ruminated</t>
+          <t>feasted</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ruminates</t>
+          <t>feasting</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ruminating</t>
+          <t>feastings</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>scatophagies</t>
+          <t>feasts</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>scatophagy</t>
+          <t>fed</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>slurp</t>
+          <t>feed</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>slurped</t>
+          <t>feeding</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>slurping</t>
+          <t>feeds</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>slurpings</t>
+          <t>gluttonize</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>slurps</t>
+          <t>gobble</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>suckle</t>
+          <t>gobbled</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>suckled</t>
+          <t>gobbles</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>suckles</t>
+          <t>gobbling</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>suckling</t>
+          <t>gorge</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sucklings</t>
+          <t>gorged</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sup</t>
+          <t>gorges</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>supped</t>
+          <t>gorging</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>supping</t>
+          <t>graze</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>suppings</t>
+          <t>grazed</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sups</t>
+          <t>grazes</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>take_out</t>
+          <t>grazing</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>taste</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tasted</t>
+          <t>lunched</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tastes</t>
+          <t>lunches</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>tasting</t>
+          <t>lunching</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>tastings</t>
+          <t>lunchings</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,1807 +2020,1807 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Feces</t>
+          <t>mycophagies</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>body_waste</t>
+          <t>mycophagy</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>defecation</t>
+          <t>necrophagia</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>defecations</t>
+          <t>necrophagias</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>nibble</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>discharged</t>
+          <t>nibbled</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>discharges</t>
+          <t>nibbles</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>discharging</t>
+          <t>nibbling</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>nosh</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>eliminations</t>
+          <t>noshed</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>noshes</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>fecula</t>
+          <t>noshing</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>feculas</t>
+          <t>omophagia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>guano</t>
+          <t>omophagias</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>guanos</t>
+          <t>peck</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>pecked</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>incontinence</t>
+          <t>pecking</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>incontinences</t>
+          <t>pecks</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>micturition</t>
+          <t>repletion</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>micturitions</t>
+          <t>repletions</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>ruminate</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>urines</t>
+          <t>ruminated</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>ruminates</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>ruminating</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>wastes</t>
+          <t>scatophagies</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>wasting</t>
+          <t>scatophagy</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>wastings</t>
+          <t>slurp</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>slurped</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>aunts</t>
+          <t>slurping</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>brethren</t>
+          <t>slurps</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>brethrens</t>
+          <t>suckle</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>suckled</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>suckles</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>suckling</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>coupled</t>
+          <t>sup</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>couples</t>
+          <t>supped</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>coupling</t>
+          <t>supping</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>couplings</t>
+          <t>suppings</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>sups</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>daughters</t>
+          <t>take_out</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>take_outed</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>take_outing</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>take_outs</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>fathered</t>
+          <t>taken_out</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>fathering</t>
+          <t>taken_outed</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>fathers</t>
+          <t>taken_outing</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>taken_outs</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>takes_out</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>husbanded</t>
+          <t>takes_outed</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>husbanding</t>
+          <t>takes_outing</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>husbands</t>
+          <t>takes_outs</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kin</t>
+          <t>taking_out</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kins</t>
+          <t>taking_outed</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>taking_outing</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mothered</t>
+          <t>taking_outs</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>mothering</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>tasted</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>tastes</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>relatives</t>
+          <t>tasting</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>tastings</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>took_out</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>took_outed</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sons</t>
+          <t>took_outing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>took_outs</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>uncles</t>
+          <t>Feces</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ach</t>
+          <t>bodies_waste</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>bodies_wasted</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ached</t>
+          <t>bodies_wastes</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>aches</t>
+          <t>bodies_wasting</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>aching</t>
+          <t>body_waste</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>achings</t>
+          <t>body_wasted</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>agonies</t>
+          <t>body_wastes</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>body_wasting</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>agonized</t>
+          <t>defecation</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>agonizes</t>
+          <t>defecations</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>agonizing</t>
+          <t>discharge</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>agony</t>
+          <t>discharged</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>arthralgia</t>
+          <t>discharges</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>arthralgias</t>
+          <t>discharging</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>elimination</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>burned</t>
+          <t>eliminations</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>burning</t>
+          <t>fecal_matter</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>burnings</t>
+          <t>fecal_mattered</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>burns</t>
+          <t>fecal_mattering</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>burnss</t>
+          <t>fecal_matters</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>burnt</t>
+          <t>fecula</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>causalgia</t>
+          <t>feculas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>causalgias</t>
+          <t>guano</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>chiralgia</t>
+          <t>guanos</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>chiralgias</t>
+          <t>human_waste</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>colic</t>
+          <t>human_wasted</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>colics</t>
+          <t>human_wastes</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>human_wasting</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>distressed</t>
+          <t>humans_waste</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>distresses</t>
+          <t>humans_wasted</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>distressing</t>
+          <t>humans_wastes</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>dysmenorrhea</t>
+          <t>humans_wasting</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>dysmenorrheas</t>
+          <t>incontinence</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>glossalgia</t>
+          <t>incontinences</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>glossalgias</t>
+          <t>micturition</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>micturitions</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>hemorrhoid</t>
+          <t>urine</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>hemorrhoids</t>
+          <t>urines</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>keratalgia</t>
+          <t>waste</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>keratalgias</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>wastes</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>mastalgia</t>
+          <t>wasting</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>mastalgias</t>
+          <t>aunt</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>melagra</t>
+          <t>aunts</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>melagras</t>
+          <t>brethren</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>meralgia</t>
+          <t>brother</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>meralgias</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>metralgia</t>
+          <t>couple</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>metralgias</t>
+          <t>coupled</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mittelschmerz</t>
+          <t>couples</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>mittelschmerzs</t>
+          <t>coupling</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>myalgia</t>
+          <t>daughter</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>myalgias</t>
+          <t>daughters</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>nephralgia</t>
+          <t>families</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>nephralgias</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>neuralgia</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>neuralgias</t>
+          <t>fathered</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>odynophagia</t>
+          <t>fathering</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>odynophagias</t>
+          <t>fathers</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>orchidalgia</t>
+          <t>foster_families</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>orchidalgias</t>
+          <t>foster_family</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>fostered_families</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>pained</t>
+          <t>fostered_family</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>paining</t>
+          <t>fostering_families</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>pains</t>
+          <t>fostering_family</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>painss</t>
+          <t>fosters_families</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>fosters_family</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>pangs</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>husbanded</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>photalgia</t>
+          <t>husbanding</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>photalgias</t>
+          <t>husbands</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>pleurodynia</t>
+          <t>kin</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>pleurodynias</t>
+          <t>kins</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>podalgia</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>podalgias</t>
+          <t>mothered</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>proctalgia</t>
+          <t>mothering</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>proctalgias</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>referred_pain</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>renal_colic</t>
+          <t>relatives</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>sister</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>smarted</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>smarter</t>
+          <t>son</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>smartest</t>
+          <t>sons</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>smarting</t>
+          <t>uncle</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>smartings</t>
+          <t>uncles</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>smarts</t>
+          <t>ache</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>somesthesia</t>
+          <t>ached</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>somesthesias</t>
+          <t>aches</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>aching</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>stinging</t>
+          <t>agonies</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>stingings</t>
+          <t>agonize</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>stings</t>
+          <t>agonized</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>agonizes</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>stitched</t>
+          <t>agonizing</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>stitches</t>
+          <t>agony</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>stitching</t>
+          <t>arthralgia</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>stitchings</t>
+          <t>arthralgias</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>stung</t>
+          <t>burn</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>burned</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>suffered</t>
+          <t>burning</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>burns</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>sufferings</t>
+          <t>burnt</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>suffers</t>
+          <t>causalgia</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>thermalgesia</t>
+          <t>causalgias</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>thermalgesias</t>
+          <t>chiralgia</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>chiralgias</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>throbbed</t>
+          <t>colic</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>throbbing</t>
+          <t>colics</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>throbbings</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>throbs</t>
+          <t>distressed</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>distresses</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>tortured</t>
+          <t>distressing</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tortures</t>
+          <t>dysmenorrhea</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>torturing</t>
+          <t>dysmenorrheas</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>torturings</t>
+          <t>glossalgia</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>glossalgias</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>twingeing</t>
+          <t>grew_pain</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>twinges</t>
+          <t>grew_pained</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ulalgia</t>
+          <t>grew_paining</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ulalgias</t>
+          <t>grew_pains</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>urodynia</t>
+          <t>grew_painss</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>urodynias</t>
+          <t>grow_pain</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4264,382 +4264,2134 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>grow_pained</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>bundled</t>
+          <t>grow_paining</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>bundles</t>
+          <t>grow_pains</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>bundling</t>
+          <t>grow_painss</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>bundlings</t>
+          <t>growing_pain</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>growing_pained</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>estivated</t>
+          <t>growing_paining</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>estivates</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>estivating</t>
+          <t>growing_painss</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>growings_pain</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>hibernated</t>
+          <t>growings_pained</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>hibernates</t>
+          <t>growings_paining</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>hibernating</t>
+          <t>growings_pains</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>growings_painss</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kipped</t>
+          <t>grown_pain</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>kipping</t>
+          <t>grown_pained</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kips</t>
+          <t>grown_paining</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>grown_pains</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>napped</t>
+          <t>grown_painss</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>napping</t>
+          <t>grows_pain</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>naps</t>
+          <t>grows_pained</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>grows_paining</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>rested</t>
+          <t>grows_pains</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>resting</t>
+          <t>grows_painss</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>rests</t>
+          <t>hemorrhoid</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>hemorrhoids</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>shuteyes</t>
+          <t>keratalgia</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>keratalgias</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>labor_pain</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sleepings</t>
+          <t>labor_pained</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sleeps</t>
+          <t>labor_paining</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
+          <t>labor_pains</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>labors_pain</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>labors_pained</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>labors_paining</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>labors_pains</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>mastalgia</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>mastalgias</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>melagra</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>melagras</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>meralgia</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>meralgias</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>metralgia</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>metralgias</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>mittelschmerz</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>mittelschmerzs</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>myalgia</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>myalgias</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>nephralgia</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>nephralgias</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>neuralgia</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>neuralgias</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>odynophagia</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>odynophagias</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>orchidalgia</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>orchidalgias</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>pained</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>paining</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>pains</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>pang</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>pangs</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>phantom_limb_pained</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>phantom_limb_paining</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>phantom_limb_pains</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>phantom_limbed_pain</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>phantom_limbed_pained</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>phantom_limbed_paining</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>phantom_limbed_pains</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>phantom_limbs_pain</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>phantom_limbs_pained</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>phantom_limbs_paining</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>phantom_limbs_pains</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>phantoms_limb_pain</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>phantoms_limb_pained</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>phantoms_limb_paining</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>phantoms_limb_pains</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>phantoms_limbed_pain</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>phantoms_limbed_pained</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>phantoms_limbed_paining</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>phantoms_limbed_pains</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>phantoms_limbs_pain</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>phantoms_limbs_pained</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>phantoms_limbs_paining</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>phantoms_limbs_pains</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>photalgia</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>photalgias</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>pleurodynia</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>pleurodynias</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>podalgia</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>podalgias</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>proctalgia</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>proctalgias</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>refer_pained</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>refer_paining</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>refer_pains</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>referred_pain</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>referred_pained</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>referred_paining</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>referred_pains</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>referring_pain</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>referring_pained</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>referring_paining</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>referring_pains</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>refers_pain</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>refers_pained</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>refers_paining</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>refers_pains</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>renal_colic</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>renal_colics</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>smart</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>smarted</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>smarter</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>smartest</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>smarting</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>smarts</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>somesthesia</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>somesthesias</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>sting</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>stinging</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>stings</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>stitch</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>stitched</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>stitches</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>stitching</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>stung</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>suffer</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>suffered</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>suffering</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>sufferings</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>suffers</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>thermalgesia</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>thermalgesias</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>throb</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>throbbed</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>throbbing</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>throbs</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>torture</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>tortured</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>tortures</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>torturing</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>twinge</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>twingeing</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>twinges</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ulalgia</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>ulalgias</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>urodynia</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>urodynias</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>asleep</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>bundle</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>bundled</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>bundles</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>bundling</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>estivate</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>estivated</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>estivates</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>estivating</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>hibernated</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>hibernates</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>hibernating</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>kipped</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>kipping</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>kips</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>napped</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>napping</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>naps</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>shuteye</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>shuteyes</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>sleepings</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>sleeps</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
           <t>slept</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B497" t="inlineStr">
         <is>
           <t>Sleep</t>
         </is>

--- a/resources/keyword_dict_annotated_expanded.xlsx
+++ b/resources/keyword_dict_annotated_expanded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5964 +436,8789 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>form</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>event_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lemma</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>ate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>eat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alerted</t>
+          <t>ate_in</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alerting</t>
+          <t>ate_ins</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alerts</t>
+          <t>ate_out</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ate_outed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>oriented</t>
+          <t>ate_outing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>orienting</t>
+          <t>ate_outs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>orients</t>
+          <t>ate_up</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alert and Oriented</t>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ate</t>
+          <t>ate_upped</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ate_in</t>
+          <t>ate_upping</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ate_ins</t>
+          <t>ate_ups</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ate_out</t>
+          <t>bit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bite</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ate_outed</t>
+          <t>bite</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bite</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ate_outing</t>
+          <t>bites</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bite</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ate_outs</t>
+          <t>biting</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bite</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ate_up</t>
+          <t>bitten</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bite</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ate_upped</t>
+          <t>break_bread</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ate_upping</t>
+          <t>break_breads</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ate_ups</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>breakfast</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bit</t>
+          <t>breakfasted</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>breakfast</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bite</t>
+          <t>breakfasting</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>breakfast</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bites</t>
+          <t>breakfasts</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>breakfast</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>biting</t>
+          <t>breaking_bread</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bitten</t>
+          <t>breaking_breads</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>breaks_bread</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>break_bread</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>break_breads</t>
+          <t>breaks_breads</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>broke_bread</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>breakfasted</t>
+          <t>broke_breads</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>breakfasting</t>
+          <t>broken_bread</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>breakfasts</t>
+          <t>broken_breads</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>break_bread</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>breaking_bread</t>
+          <t>brunch</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>brunch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>breaking_breads</t>
+          <t>brunches</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>brunch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>breaks_bread</t>
+          <t>consume</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>consume</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>breaks_breads</t>
+          <t>consumed</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>consume</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>broke_bread</t>
+          <t>consumes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>consume</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>broke_breads</t>
+          <t>consuming</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>consume</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>broken_bread</t>
+          <t>consumption</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>consumption</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>broken_breads</t>
+          <t>consumptions</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>consumption</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>brunch</t>
+          <t>coprophagies</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>coprophagy</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>brunches</t>
+          <t>coprophagy</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>coprophagy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>consume</t>
+          <t>devour</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>devour</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>consumed</t>
+          <t>devoured</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>devour</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>consumes</t>
+          <t>devouring</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>devour</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>consuming</t>
+          <t>devours</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>devour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>consumption</t>
+          <t>dine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>dine</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>consumptions</t>
+          <t>dined</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>dine</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>coprophagies</t>
+          <t>dines</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>dine</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>coprophagy</t>
+          <t>dining</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>dining</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>devour</t>
+          <t>dining</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>dine</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>devoured</t>
+          <t>dinings</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>dining</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>devouring</t>
+          <t>eat</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>eat</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>devours</t>
+          <t>eat_in</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>dine</t>
+          <t>eat_ins</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>dined</t>
+          <t>eat_out</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dines</t>
+          <t>eat_outed</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dining</t>
+          <t>eat_outing</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dinings</t>
+          <t>eat_outs</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>eat</t>
+          <t>eat_up</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eat_in</t>
+          <t>eat_upped</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eat_ins</t>
+          <t>eat_upping</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>eat_out</t>
+          <t>eat_ups</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>eat_outed</t>
+          <t>eaten</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>eat</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eat_outing</t>
+          <t>eaten_in</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>eat_outs</t>
+          <t>eaten_ins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>eat_up</t>
+          <t>eaten_out</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>eat_upped</t>
+          <t>eaten_outed</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>eat_upping</t>
+          <t>eaten_outing</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>eat_ups</t>
+          <t>eaten_outs</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>eaten</t>
+          <t>eaten_up</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eaten_in</t>
+          <t>eaten_upped</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eaten_ins</t>
+          <t>eaten_upping</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>eaten_out</t>
+          <t>eaten_ups</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>eaten_outed</t>
+          <t>eating</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>eat</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>eaten_outing</t>
+          <t>eating</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>eating</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>eaten_outs</t>
+          <t>eating_in</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eaten_up</t>
+          <t>eating_ins</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>eaten_upped</t>
+          <t>eating_out</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>eaten_upping</t>
+          <t>eating_outed</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>eaten_ups</t>
+          <t>eating_outing</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t>eating_outs</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>eating_in</t>
+          <t>eating_up</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>eating_ins</t>
+          <t>eating_upped</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>eating_out</t>
+          <t>eating_upping</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>eating_outed</t>
+          <t>eating_ups</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>eating_outing</t>
+          <t>eatings</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>eating</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>eating_outs</t>
+          <t>eats</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>eat</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>eating_up</t>
+          <t>eats_in</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>eating_upped</t>
+          <t>eats_ins</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>eat_in</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>eating_upping</t>
+          <t>eats_out</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>eating_ups</t>
+          <t>eats_outed</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eatings</t>
+          <t>eats_outing</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>eats</t>
+          <t>eats_outs</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>eat_out</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>eats_in</t>
+          <t>eats_up</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>eats_ins</t>
+          <t>eats_upped</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>eats_out</t>
+          <t>eats_upping</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>eats_outed</t>
+          <t>eats_ups</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>eat_up</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>eats_outing</t>
+          <t>engorgement</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>engorgement</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>eats_outs</t>
+          <t>engorgements</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>engorgement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>eats_up</t>
+          <t>feast</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>feast</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>eats_upped</t>
+          <t>feasted</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>feast</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eats_upping</t>
+          <t>feasting</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>feast</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>eats_ups</t>
+          <t>feasting</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>feasting</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>engorgement</t>
+          <t>feastings</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>feasting</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>engorgements</t>
+          <t>feasts</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>feast</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>feast</t>
+          <t>fed</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>feed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>feasted</t>
+          <t>feed</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>feed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>feasting</t>
+          <t>feeding</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>feed</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>feastings</t>
+          <t>feeds</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>feed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>feasts</t>
+          <t>gluttonize</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>gluttonize</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>fed</t>
+          <t>gobble</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>gobble</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>feed</t>
+          <t>gobbled</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>gobble</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>feeding</t>
+          <t>gobbles</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>gobble</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>feeds</t>
+          <t>gobbling</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>gobble</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>gluttonize</t>
+          <t>gorge</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>gorge</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>gobble</t>
+          <t>gorged</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>gorge</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>gobbled</t>
+          <t>gorges</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>gorge</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>gobbles</t>
+          <t>gorging</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>gorge</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>gobbling</t>
+          <t>graze</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>graze</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>gorge</t>
+          <t>grazed</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>graze</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>gorged</t>
+          <t>grazes</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>graze</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>gorges</t>
+          <t>grazing</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>graze</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>gorging</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>lunch</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>graze</t>
+          <t>lunched</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>lunch</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>grazed</t>
+          <t>lunches</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>lunch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>grazes</t>
+          <t>lunching</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>lunch</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>grazing</t>
+          <t>lunching</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>lunching</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>lunchings</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>lunching</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lunched</t>
+          <t>mycophagies</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>mycophagy</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>lunches</t>
+          <t>mycophagy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>mycophagy</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lunching</t>
+          <t>necrophagia</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>necrophagia</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>lunchings</t>
+          <t>necrophagias</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>necrophagia</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mycophagies</t>
+          <t>nibble</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>nibble</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mycophagy</t>
+          <t>nibbled</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>nibble</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>necrophagia</t>
+          <t>nibbles</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>nibble</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>necrophagias</t>
+          <t>nibbling</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>nibble</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>nibble</t>
+          <t>nosh</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>nosh</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>nibbled</t>
+          <t>noshed</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>nosh</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>nibbles</t>
+          <t>noshes</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>nosh</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>nibbling</t>
+          <t>noshing</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>nosh</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>nosh</t>
+          <t>omophagia</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>omophagia</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>noshed</t>
+          <t>omophagias</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>omophagia</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>noshes</t>
+          <t>peck</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>peck</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>noshing</t>
+          <t>pecked</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>peck</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>omophagia</t>
+          <t>pecking</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>peck</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>omophagias</t>
+          <t>pecks</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>peck</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>peck</t>
+          <t>repletion</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>repletion</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>pecked</t>
+          <t>repletions</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>repletion</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>pecking</t>
+          <t>ruminate</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ruminate</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>pecks</t>
+          <t>ruminated</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ruminate</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>repletion</t>
+          <t>ruminates</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ruminate</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>repletions</t>
+          <t>ruminating</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ruminate</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ruminate</t>
+          <t>scatophagies</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>scatophagy</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ruminated</t>
+          <t>scatophagy</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>scatophagy</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ruminates</t>
+          <t>slurp</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>slurp</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ruminating</t>
+          <t>slurped</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>slurp</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>scatophagies</t>
+          <t>slurping</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>slurp</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>scatophagy</t>
+          <t>slurps</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>slurp</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>slurp</t>
+          <t>suckle</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>suckle</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>slurped</t>
+          <t>suckled</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>suckle</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>slurping</t>
+          <t>suckles</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>suckle</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>slurps</t>
+          <t>suckling</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>suckle</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>suckle</t>
+          <t>sup</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>sup</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>suckled</t>
+          <t>supped</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>sup</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>suckles</t>
+          <t>supping</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>sup</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>suckling</t>
+          <t>supping</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>supping</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sup</t>
+          <t>suppings</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>supping</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>supped</t>
+          <t>sups</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>sup</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>supping</t>
+          <t>take_out</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>suppings</t>
+          <t>take_outed</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sups</t>
+          <t>take_outing</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>take_outs</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>take_out</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>take_outed</t>
+          <t>taken_out</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>take_outing</t>
+          <t>taken_outed</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>take_outs</t>
+          <t>taken_outing</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>taken_out</t>
+          <t>taken_outs</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>taken_outed</t>
+          <t>takes_out</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>taken_outing</t>
+          <t>takes_outed</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>taken_outs</t>
+          <t>takes_outing</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>takes_out</t>
+          <t>takes_outs</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>takes_outed</t>
+          <t>taking_out</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>takes_outing</t>
+          <t>taking_outed</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>takes_outs</t>
+          <t>taking_outing</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>taking_out</t>
+          <t>taking_outs</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>taking_outed</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>taste</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>taking_outing</t>
+          <t>tasted</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>taste</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>taking_outs</t>
+          <t>tastes</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>taste</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>tasting</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Eating</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>taste</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Eating</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>tasted</t>
+          <t>tasting</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>tasting</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>tastes</t>
+          <t>tastings</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>tasting</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>tasting</t>
+          <t>took_out</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tastings</t>
+          <t>took_outed</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>took_out</t>
+          <t>took_outing</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>took_outed</t>
+          <t>took_outs</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Eating</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>take_out</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>took_outing</t>
+          <t>Feces</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Eating</t>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Feces</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>took_outs</t>
+          <t>bodies_waste</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Eating</t>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Feces</t>
+          <t>bodies_wasted</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>bodies_waste</t>
+          <t>bodies_wastes</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bodies_wasted</t>
+          <t>bodies_wasting</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>bodies_wastes</t>
+          <t>body_waste</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>bodies_wasting</t>
+          <t>body_wasted</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>body_wastes</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>body_waste</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>body_wasted</t>
+          <t>body_wasting</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>body_waste</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>body_wastes</t>
+          <t>defecation</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>defecation</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>body_wasting</t>
+          <t>defecations</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>defecation</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>defecation</t>
+          <t>discharge</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>discharge</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>defecations</t>
+          <t>discharged</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>discharge</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>discharges</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>discharge</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>discharged</t>
+          <t>discharging</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>discharge</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>discharges</t>
+          <t>elimination</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>elimination</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>discharging</t>
+          <t>eliminations</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>elimination</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>fecal_matter</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>eliminations</t>
+          <t>fecal_mattered</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>fecal_mattering</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
           <t>fecal_matter</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>fecal_mattered</t>
+          <t>fecal_matters</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>fecal_mattering</t>
+          <t>fecula</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>fecula</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>fecal_matters</t>
+          <t>feculas</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>fecula</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fecula</t>
+          <t>guano</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>guano</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>feculas</t>
+          <t>guanos</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>guano</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>guano</t>
+          <t>human_waste</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>guanos</t>
+          <t>human_wasted</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>human_wastes</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
           <t>human_waste</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>human_wasted</t>
+          <t>human_wasting</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>human_wastes</t>
+          <t>humans_waste</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>human_wasting</t>
+          <t>humans_wasted</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>humans_waste</t>
+          <t>humans_wastes</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>humans_wasted</t>
+          <t>humans_wasting</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>humans_wastes</t>
+          <t>incontinence</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>incontinence</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>humans_wasting</t>
+          <t>incontinences</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>incontinence</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>incontinence</t>
+          <t>micturition</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>micturition</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>incontinences</t>
+          <t>micturitions</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>micturition</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>micturition</t>
+          <t>urine</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>urine</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>micturitions</t>
+          <t>urines</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>urine</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>waste</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>urines</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>wastes</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
           <t>waste</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Excretion</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>wasting</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Excretion</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>wastes</t>
+          <t>aunt</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>aunt</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>wasting</t>
+          <t>aunts</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>aunt</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>brethren</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>aunts</t>
+          <t>brother</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>brethren</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>couple</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>coupled</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t>couples</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
           <t>couple</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>coupled</t>
+          <t>coupling</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>couples</t>
+          <t>daughter</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>daughter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>coupling</t>
+          <t>daughters</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>daughter</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>families</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>family</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>daughters</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>family</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>fathered</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
+          <t>fathering</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
           <t>father</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>fathered</t>
+          <t>fathers</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>fathering</t>
+          <t>foster_families</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>fathers</t>
+          <t>foster_family</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>foster_families</t>
+          <t>fostered_families</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>fostered_family</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
           <t>foster_family</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>fostered_families</t>
+          <t>fostering_families</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>fostered_family</t>
+          <t>fostering_family</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>fostering_families</t>
+          <t>fosters_families</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>fostering_family</t>
+          <t>fosters_family</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>fosters_families</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>fosters_family</t>
+          <t>husbanded</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
+          <t>husbanding</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
           <t>husband</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>husbanded</t>
+          <t>husbands</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>husbanding</t>
+          <t>kin</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>kin</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>husbands</t>
+          <t>kins</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>kin</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>kin</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>kins</t>
+          <t>mothered</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>mothering</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
           <t>mother</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>mothered</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>mothering</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>relative</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>relatives</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>relative</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>sister</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>sister</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>relatives</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>sister</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>son</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>son</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>sons</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>son</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>uncle</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>uncle</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sons</t>
+          <t>uncles</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Family</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>uncle</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>alert</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>uncles</t>
+          <t>alerted</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>alerting</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ached</t>
+          <t>alerts</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>aches</t>
+          <t>orient</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>aching</t>
+          <t>oriented</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>agonies</t>
+          <t>orienting</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>orients</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>agonized</t>
+          <t>ache</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>agonizes</t>
+          <t>ached</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>agonizing</t>
+          <t>aches</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>agony</t>
+          <t>aching</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>arthralgia</t>
+          <t>agonies</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>agony</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>arthralgias</t>
+          <t>agonize</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>agonized</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>burned</t>
+          <t>agonizes</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>burning</t>
+          <t>agonizing</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>burns</t>
+          <t>agony</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>agony</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>burnt</t>
+          <t>arthralgia</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>arthralgia</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>causalgia</t>
+          <t>arthralgias</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>arthralgia</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>causalgias</t>
+          <t>burn</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>chiralgia</t>
+          <t>burned</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>chiralgias</t>
+          <t>burning</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>colic</t>
+          <t>burns</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>colics</t>
+          <t>burnt</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>causalgia</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>causalgia</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>distressed</t>
+          <t>causalgias</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>causalgia</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>distresses</t>
+          <t>chiralgia</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>chiralgia</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>distressing</t>
+          <t>chiralgias</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>chiralgia</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>dysmenorrhea</t>
+          <t>colic</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>colic</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>dysmenorrheas</t>
+          <t>colics</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>colic</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>glossalgia</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>glossalgias</t>
+          <t>distressed</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>grew_pain</t>
+          <t>distresses</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>grew_pained</t>
+          <t>distressing</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>grew_paining</t>
+          <t>dysmenorrhea</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>dysmenorrhea</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>grew_pains</t>
+          <t>dysmenorrheas</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>dysmenorrhea</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>grew_painss</t>
+          <t>glossalgia</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>glossalgia</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>glossalgias</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>glossalgia</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>grow_pained</t>
+          <t>grew_pain</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>grow_paining</t>
+          <t>grew_pained</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grew_paining</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>grow_painss</t>
+          <t>grew_pains</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>grew_pains</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>growing_pained</t>
+          <t>grew_painss</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>growing_paining</t>
+          <t>grow_pain</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>grow_pained</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>growing_painss</t>
+          <t>grow_paining</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>growings_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>growings_pained</t>
+          <t>grow_pains</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>growings_paining</t>
+          <t>grow_painss</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>growings_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>growings_painss</t>
+          <t>growing_pain</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>grown_pain</t>
+          <t>growing_pained</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>grown_pained</t>
+          <t>growing_pained</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>grown_paining</t>
+          <t>growing_paining</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>grown_pains</t>
+          <t>growing_paining</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>grown_painss</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>grows_pain</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>grows_pained</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>grows_paining</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>grows_pains</t>
+          <t>growing_painss</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>grows_painss</t>
+          <t>growing_painss</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>hemorrhoid</t>
+          <t>growings_pain</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>hemorrhoids</t>
+          <t>growings_pained</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>keratalgia</t>
+          <t>growings_paining</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>keratalgias</t>
+          <t>growings_pains</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>growings_pains</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>labor_pained</t>
+          <t>growings_painss</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>labor_paining</t>
+          <t>grown_pain</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>labor_pains</t>
+          <t>grown_pained</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>labors_pain</t>
+          <t>grown_paining</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>labors_pained</t>
+          <t>grown_pains</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>labors_paining</t>
+          <t>grown_pains</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>labors_pains</t>
+          <t>grown_painss</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>mastalgia</t>
+          <t>grows_pain</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mastalgias</t>
+          <t>grows_pained</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>melagra</t>
+          <t>grows_paining</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>melagras</t>
+          <t>grows_pains</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>meralgia</t>
+          <t>grows_pains</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>meralgias</t>
+          <t>grows_painss</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>metralgia</t>
+          <t>hemorrhoid</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>hemorrhoid</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>metralgias</t>
+          <t>hemorrhoids</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>hemorrhoid</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>mittelschmerz</t>
+          <t>keratalgia</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>keratalgia</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>mittelschmerzs</t>
+          <t>keratalgias</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>keratalgia</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>myalgia</t>
+          <t>labor_pain</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>myalgias</t>
+          <t>labor_pained</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>nephralgia</t>
+          <t>labor_paining</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>nephralgias</t>
+          <t>labor_pains</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>neuralgia</t>
+          <t>labors_pain</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>neuralgias</t>
+          <t>labors_pained</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>odynophagia</t>
+          <t>labors_paining</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>odynophagias</t>
+          <t>labors_pains</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>orchidalgia</t>
+          <t>mastalgia</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>mastalgia</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>orchidalgias</t>
+          <t>mastalgias</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>mastalgia</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>melagra</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>melagra</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>pained</t>
+          <t>melagras</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>melagra</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>paining</t>
+          <t>meralgia</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>meralgia</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>pains</t>
+          <t>meralgias</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>meralgia</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>metralgia</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>metralgia</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pangs</t>
+          <t>metralgias</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>metralgia</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>mittelschmerz</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>mittelschmerz</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>phantom_limb_pained</t>
+          <t>mittelschmerzs</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>mittelschmerz</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>phantom_limb_paining</t>
+          <t>myalgia</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>myalgia</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>phantom_limb_pains</t>
+          <t>myalgias</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>myalgia</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>phantom_limbed_pain</t>
+          <t>nephralgia</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>nephralgia</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>phantom_limbed_pained</t>
+          <t>nephralgias</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>nephralgia</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>phantom_limbed_paining</t>
+          <t>neuralgia</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>neuralgia</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>phantom_limbed_pains</t>
+          <t>neuralgias</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>neuralgia</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>phantom_limbs_pain</t>
+          <t>odynophagia</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>odynophagia</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>phantom_limbs_pained</t>
+          <t>odynophagias</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>odynophagia</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>phantom_limbs_paining</t>
+          <t>orchidalgia</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>orchidalgia</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>phantom_limbs_pains</t>
+          <t>orchidalgias</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>orchidalgia</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>phantoms_limb_pain</t>
+          <t>pain</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>phantoms_limb_pained</t>
+          <t>pained</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>phantoms_limb_paining</t>
+          <t>paining</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>phantoms_limb_pains</t>
+          <t>pains</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pain</t>
+          <t>pang</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>pang</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pained</t>
+          <t>pangs</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>pang</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>phantoms_limbed_paining</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pains</t>
+          <t>phantom_limb_pained</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pain</t>
+          <t>phantom_limb_paining</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pained</t>
+          <t>phantom_limb_pains</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>phantoms_limbs_paining</t>
+          <t>phantom_limbed_pain</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pains</t>
+          <t>phantom_limbed_pained</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>photalgia</t>
+          <t>phantom_limbed_paining</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>photalgias</t>
+          <t>phantom_limbed_pains</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pleurodynia</t>
+          <t>phantom_limbs_pain</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>pleurodynias</t>
+          <t>phantom_limbs_pained</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>podalgia</t>
+          <t>phantom_limbs_paining</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>podalgias</t>
+          <t>phantom_limbs_pains</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>proctalgia</t>
+          <t>phantoms_limb_pain</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>proctalgias</t>
+          <t>phantoms_limb_pained</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>phantoms_limb_paining</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>refer_pained</t>
+          <t>phantoms_limb_pains</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>refer_paining</t>
+          <t>phantoms_limbed_pain</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>refer_pains</t>
+          <t>phantoms_limbed_pained</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>referred_pain</t>
+          <t>phantoms_limbed_paining</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>referred_pained</t>
+          <t>phantoms_limbed_pains</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>referred_paining</t>
+          <t>phantoms_limbs_pain</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>referred_pains</t>
+          <t>phantoms_limbs_pained</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>referring_pain</t>
+          <t>phantoms_limbs_paining</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>referring_pained</t>
+          <t>phantoms_limbs_pains</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>referring_paining</t>
+          <t>photalgia</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>photalgia</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>referring_pains</t>
+          <t>photalgias</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>photalgia</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>refers_pain</t>
+          <t>pleurodynia</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>pleurodynia</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>refers_pained</t>
+          <t>pleurodynias</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>pleurodynia</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>refers_paining</t>
+          <t>podalgia</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>podalgia</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>refers_pains</t>
+          <t>podalgias</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>podalgia</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>renal_colic</t>
+          <t>proctalgia</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>proctalgia</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>renal_colics</t>
+          <t>proctalgias</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>proctalgia</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>refer_pain</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>smarted</t>
+          <t>refer_pained</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>smarter</t>
+          <t>refer_paining</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>smartest</t>
+          <t>refer_pains</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>smarting</t>
+          <t>referred_pain</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>smarts</t>
+          <t>referred_pained</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>somesthesia</t>
+          <t>referred_paining</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>somesthesias</t>
+          <t>referred_pains</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>referring_pain</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>stinging</t>
+          <t>referring_pained</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>stings</t>
+          <t>referring_paining</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>referring_pains</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>stitched</t>
+          <t>refers_pain</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>stitches</t>
+          <t>refers_pained</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>stitching</t>
+          <t>refers_paining</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>stung</t>
+          <t>refers_pains</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>renal_colic</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>renal_colic</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>suffered</t>
+          <t>renal_colics</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>renal_colic</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>sufferings</t>
+          <t>smarted</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>suffers</t>
+          <t>smarter</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>thermalgesia</t>
+          <t>smartest</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>thermalgesias</t>
+          <t>smarting</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>smarts</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>throbbed</t>
+          <t>somesthesia</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>somesthesia</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>throbbing</t>
+          <t>somesthesias</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>somesthesia</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>throbs</t>
+          <t>sting</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>stinging</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>tortured</t>
+          <t>stings</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>tortures</t>
+          <t>stitch</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>torturing</t>
+          <t>stitched</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>stitches</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>twingeing</t>
+          <t>stitching</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>twinges</t>
+          <t>stung</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ulalgia</t>
+          <t>suffer</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ulalgias</t>
+          <t>suffered</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>urodynia</t>
+          <t>suffering</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>urodynias</t>
+          <t>suffering</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Pain</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>suffering</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>asleep</t>
+          <t>sufferings</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>suffering</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>suffers</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>bundled</t>
+          <t>thermalgesia</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>thermalgesia</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>bundles</t>
+          <t>thermalgesias</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>thermalgesia</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>bundling</t>
+          <t>throb</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>throbbed</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>estivated</t>
+          <t>throbbing</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>estivates</t>
+          <t>throbs</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>estivating</t>
+          <t>torture</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>tortured</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>hibernated</t>
+          <t>tortures</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>hibernates</t>
+          <t>torturing</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>hibernating</t>
+          <t>twinge</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>twingeing</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>kipped</t>
+          <t>twinges</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>kipping</t>
+          <t>ulalgia</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>ulalgia</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>kips</t>
+          <t>ulalgias</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>ulalgia</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>urodynia</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>urodynia</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>napped</t>
+          <t>urodynias</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>urodynia</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>napping</t>
+          <t>asleep</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>asleep</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>naps</t>
+          <t>bundle</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>bundled</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>shuteyes</t>
+          <t>bundles</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>bundling</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>estivate</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>sleepings</t>
+          <t>estivated</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>sleeps</t>
+          <t>estivates</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
+          <t>estivating</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>estivate</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>hibernated</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>hibernates</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>hibernating</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>kipped</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>kipping</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>kips</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>kip</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>napped</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>napping</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>naps</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>nap</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>shuteye</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>shuteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>shuteyes</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>shuteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>sleepings</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>sleeps</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
           <t>slept</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr">
+      <c r="B517" t="inlineStr">
         <is>
           <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>sleep</t>
         </is>
       </c>
     </row>

--- a/resources/keyword_dict_annotated_expanded.xlsx
+++ b/resources/keyword_dict_annotated_expanded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3921,7 +3921,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>elimination</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3931,14 +3931,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>elimination</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>discharged</t>
+          <t>eliminations</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3948,14 +3948,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>elimination</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>discharges</t>
+          <t>fecal_matter</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>discharging</t>
+          <t>fecal_mattered</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3982,14 +3982,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>fecal_mattering</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3999,14 +3999,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>eliminations</t>
+          <t>fecal_matters</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>fecal_matter</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>fecula</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4033,14 +4033,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>fecula</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>fecal_mattered</t>
+          <t>feculas</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4050,14 +4050,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>fecula</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>fecal_mattering</t>
+          <t>guano</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>guano</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>fecal_matters</t>
+          <t>guanos</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4084,14 +4084,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>fecal_matter</t>
+          <t>guano</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>fecula</t>
+          <t>human_waste</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4101,14 +4101,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>fecula</t>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>feculas</t>
+          <t>human_wasted</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4118,14 +4118,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>fecula</t>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>guano</t>
+          <t>human_wastes</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4135,14 +4135,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>guano</t>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>guanos</t>
+          <t>human_wasting</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>guano</t>
+          <t>human_waste</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>humans_waste</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>human_wasted</t>
+          <t>humans_wasted</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4193,7 +4193,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>human_wastes</t>
+          <t>humans_wastes</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>human_wasting</t>
+          <t>humans_wasting</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4227,7 +4227,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>humans_waste</t>
+          <t>incontinence</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4237,14 +4237,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>incontinence</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>humans_wasted</t>
+          <t>incontinences</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>incontinence</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>humans_wastes</t>
+          <t>micturition</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>micturition</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>humans_wasting</t>
+          <t>micturitions</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>human_waste</t>
+          <t>micturition</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>incontinence</t>
+          <t>urine</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4305,14 +4305,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>incontinence</t>
+          <t>urine</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>incontinences</t>
+          <t>urines</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>incontinence</t>
+          <t>urine</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>micturition</t>
+          <t>waste</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4339,14 +4339,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>micturition</t>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>micturitions</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4356,14 +4356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>micturition</t>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>wastes</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4373,14 +4373,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>urines</t>
+          <t>wasting</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4390,82 +4390,82 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>aunt</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>aunt</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>aunts</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>aunt</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>wastes</t>
+          <t>brethren</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>wasting</t>
+          <t>brother</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Excretion</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4475,14 +4475,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>brother</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>aunts</t>
+          <t>couple</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4492,14 +4492,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>aunt</t>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>brethren</t>
+          <t>coupled</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4509,14 +4509,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>couples</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>coupling</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>couple</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>daughter</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4560,14 +4560,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>daughter</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>coupled</t>
+          <t>daughters</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4577,14 +4577,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>daughter</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>couples</t>
+          <t>families</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4594,14 +4594,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>family</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>coupling</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4611,14 +4611,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>family</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4628,14 +4628,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>daughters</t>
+          <t>fathered</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4645,14 +4645,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>fathering</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>fathers</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>father</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>foster_families</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4696,14 +4696,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>fathered</t>
+          <t>foster_family</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4713,14 +4713,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>fathering</t>
+          <t>fostered_families</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4730,14 +4730,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>fathers</t>
+          <t>fostered_family</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4747,14 +4747,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>foster_family</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>foster_families</t>
+          <t>fostering_families</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>fostering_family</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>fostered_families</t>
+          <t>fosters_families</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>fostered_family</t>
+          <t>fosters_family</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>fostering_families</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4832,14 +4832,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>fostering_family</t>
+          <t>husbanded</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4849,14 +4849,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>fosters_families</t>
+          <t>husbanding</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4866,14 +4866,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>fosters_family</t>
+          <t>husbands</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4883,14 +4883,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>foster_family</t>
+          <t>husband</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>kin</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>kin</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>husbanded</t>
+          <t>kins</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4917,14 +4917,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>kin</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>husbanding</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4934,14 +4934,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>husbands</t>
+          <t>mothered</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4951,14 +4951,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>kin</t>
+          <t>mothering</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>kin</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>kins</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4985,14 +4985,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>kin</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5002,14 +5002,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>relative</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>mothered</t>
+          <t>relatives</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5019,14 +5019,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>relative</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mothering</t>
+          <t>sister</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5036,14 +5036,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>sister</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5053,14 +5053,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>sister</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>son</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5070,14 +5070,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>son</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>relatives</t>
+          <t>sons</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5087,14 +5087,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>son</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>uncle</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5104,14 +5104,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>uncle</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>uncles</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5121,82 +5121,82 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>uncle</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>alert</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>sons</t>
+          <t>alerted</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>alerting</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>uncles</t>
+          <t>alerts</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>uncle</t>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>orient</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5206,14 +5206,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>alerted</t>
+          <t>oriented</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5223,14 +5223,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>alerting</t>
+          <t>orienting</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5240,14 +5240,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>alerts</t>
+          <t>orients</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5257,82 +5257,82 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>orient</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ache</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>oriented</t>
+          <t>ached</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>orienting</t>
+          <t>aches</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>orients</t>
+          <t>aching</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>orient</t>
+          <t>ache</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>agonies</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5342,14 +5342,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>agony</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ached</t>
+          <t>agonize</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5359,14 +5359,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>aches</t>
+          <t>agonized</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>aching</t>
+          <t>agonizes</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>ache</t>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>agonies</t>
+          <t>agonizing</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5410,14 +5410,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>agony</t>
+          <t>agonize</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>agony</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5427,14 +5427,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>agony</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>agonized</t>
+          <t>arthralgia</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5444,14 +5444,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>arthralgia</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>agonizes</t>
+          <t>arthralgias</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5461,14 +5461,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>arthralgia</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>agonizing</t>
+          <t>burn</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -5478,14 +5478,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>agonize</t>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>agony</t>
+          <t>burned</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>agony</t>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>arthralgia</t>
+          <t>burning</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5512,14 +5512,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>arthralgia</t>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>arthralgias</t>
+          <t>burns</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5529,14 +5529,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>arthralgia</t>
+          <t>burn</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>burnt</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5553,7 +5553,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>burned</t>
+          <t>causalgia</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -5563,14 +5563,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>causalgia</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>burning</t>
+          <t>causalgias</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5580,14 +5580,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>causalgia</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>burns</t>
+          <t>chiralgia</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -5597,14 +5597,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>chiralgia</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>burnt</t>
+          <t>chiralgias</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>chiralgia</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>causalgia</t>
+          <t>colic</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5631,14 +5631,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>causalgia</t>
+          <t>colic</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>causalgias</t>
+          <t>colics</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>causalgia</t>
+          <t>colic</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>chiralgia</t>
+          <t>distress</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5665,14 +5665,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>chiralgia</t>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>chiralgias</t>
+          <t>distressed</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5682,14 +5682,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>chiralgia</t>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>colic</t>
+          <t>distresses</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5699,14 +5699,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>colic</t>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>colics</t>
+          <t>distressing</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5716,14 +5716,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>colic</t>
+          <t>distress</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>dysmenorrhea</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>dysmenorrhea</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>distressed</t>
+          <t>dysmenorrheas</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>dysmenorrhea</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>distresses</t>
+          <t>glossalgia</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5767,14 +5767,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>glossalgia</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>distressing</t>
+          <t>glossalgias</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>distress</t>
+          <t>glossalgia</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>dysmenorrhea</t>
+          <t>grew_pain</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5801,14 +5801,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>dysmenorrhea</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>dysmenorrheas</t>
+          <t>grew_pained</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>dysmenorrhea</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>glossalgia</t>
+          <t>grew_paining</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5835,14 +5835,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>glossalgia</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>glossalgias</t>
+          <t>grew_pains</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5852,14 +5852,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>glossalgia</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>grew_pain</t>
+          <t>grew_pains</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5869,14 +5869,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>grew_pained</t>
+          <t>grew_painss</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5886,14 +5886,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>grew_paining</t>
+          <t>grow_pain</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5910,7 +5910,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>grew_pains</t>
+          <t>grow_pained</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5927,7 +5927,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>grew_pains</t>
+          <t>grow_paining</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5937,14 +5937,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>grew_painss</t>
+          <t>grow_pains</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5954,14 +5954,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5971,14 +5971,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>grow_pained</t>
+          <t>grow_painss</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5988,14 +5988,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>grow_paining</t>
+          <t>growing_pain</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6012,7 +6012,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6022,14 +6022,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>growing_pained</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6039,14 +6039,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>grow_painss</t>
+          <t>growing_pained</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>growing_paining</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>growing_paining</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>growing_pained</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -6114,7 +6114,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>growing_pained</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6124,14 +6124,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>growing_paining</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -6141,14 +6141,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>growing_paining</t>
+          <t>growing_pains</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6158,14 +6158,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>growing_painss</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6175,31 +6175,31 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
+          <t>growing_painss</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Pain</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
           <t>growing_pains</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Pain</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>growings_pain</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>growings_pained</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>growing_painss</t>
+          <t>growings_paining</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6243,14 +6243,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>growing_painss</t>
+          <t>growings_pains</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6260,14 +6260,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>growing_pain</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>growings_pain</t>
+          <t>growings_pains</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6277,14 +6277,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>growings_pained</t>
+          <t>growings_painss</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6294,14 +6294,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>growing_pains</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>growings_paining</t>
+          <t>grown_pain</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -6311,14 +6311,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>growings_pains</t>
+          <t>grown_pained</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6328,14 +6328,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>growing_pain</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>growings_pains</t>
+          <t>grown_paining</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6345,14 +6345,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>growings_painss</t>
+          <t>grown_pains</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6362,14 +6362,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>growing_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>grown_pain</t>
+          <t>grown_pains</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6379,14 +6379,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>grown_pained</t>
+          <t>grown_painss</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6396,14 +6396,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>grown_paining</t>
+          <t>grows_pain</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>grown_pains</t>
+          <t>grows_pained</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -6437,7 +6437,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>grown_pains</t>
+          <t>grows_paining</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6447,14 +6447,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>grown_painss</t>
+          <t>grows_pains</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>grow_pain</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>grows_pain</t>
+          <t>grows_pains</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>grows_pained</t>
+          <t>grows_painss</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6498,14 +6498,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>grow_pains</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>grows_paining</t>
+          <t>hemorrhoid</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6515,14 +6515,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>hemorrhoid</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>grows_pains</t>
+          <t>hemorrhoids</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6532,14 +6532,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>grow_pain</t>
+          <t>hemorrhoid</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>grows_pains</t>
+          <t>keratalgia</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6549,14 +6549,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>keratalgia</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>grows_painss</t>
+          <t>keratalgias</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -6566,14 +6566,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>grow_pains</t>
+          <t>keratalgia</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>hemorrhoid</t>
+          <t>labor_pain</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6583,14 +6583,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>hemorrhoid</t>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>hemorrhoids</t>
+          <t>labor_pained</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6600,14 +6600,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>hemorrhoid</t>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>keratalgia</t>
+          <t>labor_paining</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6617,14 +6617,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>keratalgia</t>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>keratalgias</t>
+          <t>labor_pains</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -6634,14 +6634,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>keratalgia</t>
+          <t>labor_pain</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>labors_pain</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>labor_pained</t>
+          <t>labors_pained</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6675,7 +6675,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>labor_paining</t>
+          <t>labors_paining</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>labor_pains</t>
+          <t>labors_pains</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>labors_pain</t>
+          <t>mastalgia</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -6719,14 +6719,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>mastalgia</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>labors_pained</t>
+          <t>mastalgias</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -6736,14 +6736,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>mastalgia</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>labors_paining</t>
+          <t>melagra</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6753,14 +6753,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>melagra</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>labors_pains</t>
+          <t>melagras</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6770,14 +6770,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>labor_pain</t>
+          <t>melagra</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>mastalgia</t>
+          <t>meralgia</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6787,14 +6787,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>mastalgia</t>
+          <t>meralgia</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>mastalgias</t>
+          <t>meralgias</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6804,14 +6804,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>mastalgia</t>
+          <t>meralgia</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>melagra</t>
+          <t>metralgia</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>melagra</t>
+          <t>metralgia</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>melagras</t>
+          <t>metralgias</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6838,14 +6838,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>melagra</t>
+          <t>metralgia</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>meralgia</t>
+          <t>mittelschmerz</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6855,14 +6855,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>meralgia</t>
+          <t>mittelschmerz</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>meralgias</t>
+          <t>mittelschmerzs</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>meralgia</t>
+          <t>mittelschmerz</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>metralgia</t>
+          <t>myalgia</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6889,14 +6889,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>metralgia</t>
+          <t>myalgia</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>metralgias</t>
+          <t>myalgias</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6906,14 +6906,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>metralgia</t>
+          <t>myalgia</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>mittelschmerz</t>
+          <t>nephralgia</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6923,14 +6923,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>mittelschmerz</t>
+          <t>nephralgia</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>mittelschmerzs</t>
+          <t>nephralgias</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6940,14 +6940,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>mittelschmerz</t>
+          <t>nephralgia</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>myalgia</t>
+          <t>neuralgia</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6957,14 +6957,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>myalgia</t>
+          <t>neuralgia</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>myalgias</t>
+          <t>neuralgias</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6974,14 +6974,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>myalgia</t>
+          <t>neuralgia</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>nephralgia</t>
+          <t>odynophagia</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6991,14 +6991,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>nephralgia</t>
+          <t>odynophagia</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>nephralgias</t>
+          <t>odynophagias</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -7008,14 +7008,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>nephralgia</t>
+          <t>odynophagia</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>neuralgia</t>
+          <t>orchidalgia</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7025,14 +7025,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>neuralgia</t>
+          <t>orchidalgia</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>neuralgias</t>
+          <t>orchidalgias</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7042,14 +7042,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>neuralgia</t>
+          <t>orchidalgia</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>odynophagia</t>
+          <t>pain</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7059,14 +7059,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>odynophagia</t>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>odynophagias</t>
+          <t>pained</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7076,14 +7076,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>odynophagia</t>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>orchidalgia</t>
+          <t>paining</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7093,14 +7093,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>orchidalgia</t>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>orchidalgias</t>
+          <t>pains</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>orchidalgia</t>
+          <t>pain</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>pang</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7127,14 +7127,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>pang</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>pained</t>
+          <t>pangs</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7144,14 +7144,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>pang</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>paining</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7161,14 +7161,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>pains</t>
+          <t>phantom_limb_pained</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>phantom_limb_paining</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7195,14 +7195,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>pangs</t>
+          <t>phantom_limb_pains</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7212,14 +7212,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>phantom_limb_pain</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>phantom_limbed_pain</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7236,7 +7236,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>phantom_limb_pained</t>
+          <t>phantom_limbed_pained</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -7253,7 +7253,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>phantom_limb_paining</t>
+          <t>phantom_limbed_paining</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -7270,7 +7270,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>phantom_limb_pains</t>
+          <t>phantom_limbed_pains</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -7287,7 +7287,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>phantom_limbed_pain</t>
+          <t>phantom_limbs_pain</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>phantom_limbed_pained</t>
+          <t>phantom_limbs_pained</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -7321,7 +7321,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>phantom_limbed_paining</t>
+          <t>phantom_limbs_paining</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>phantom_limbed_pains</t>
+          <t>phantom_limbs_pains</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -7355,7 +7355,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>phantom_limbs_pain</t>
+          <t>phantoms_limb_pain</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -7372,7 +7372,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>phantom_limbs_pained</t>
+          <t>phantoms_limb_pained</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7389,7 +7389,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>phantom_limbs_paining</t>
+          <t>phantoms_limb_paining</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7406,7 +7406,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>phantom_limbs_pains</t>
+          <t>phantoms_limb_pains</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -7423,7 +7423,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>phantoms_limb_pain</t>
+          <t>phantoms_limbed_pain</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7440,7 +7440,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>phantoms_limb_pained</t>
+          <t>phantoms_limbed_pained</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7457,7 +7457,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>phantoms_limb_paining</t>
+          <t>phantoms_limbed_paining</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -7474,7 +7474,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>phantoms_limb_pains</t>
+          <t>phantoms_limbed_pains</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7491,7 +7491,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pain</t>
+          <t>phantoms_limbs_pain</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pained</t>
+          <t>phantoms_limbs_pained</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -7525,7 +7525,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>phantoms_limbed_paining</t>
+          <t>phantoms_limbs_paining</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7542,7 +7542,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>phantoms_limbed_pains</t>
+          <t>phantoms_limbs_pains</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7559,7 +7559,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pain</t>
+          <t>photalgia</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -7569,14 +7569,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>photalgia</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pained</t>
+          <t>photalgias</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -7586,14 +7586,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>photalgia</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>phantoms_limbs_paining</t>
+          <t>pleurodynia</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7603,14 +7603,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>pleurodynia</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>phantoms_limbs_pains</t>
+          <t>pleurodynias</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -7620,14 +7620,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>phantom_limb_pain</t>
+          <t>pleurodynia</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>photalgia</t>
+          <t>podalgia</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -7637,14 +7637,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>photalgia</t>
+          <t>podalgia</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>photalgias</t>
+          <t>podalgias</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -7654,14 +7654,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>photalgia</t>
+          <t>podalgia</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>pleurodynia</t>
+          <t>proctalgia</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -7671,14 +7671,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>pleurodynia</t>
+          <t>proctalgia</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>pleurodynias</t>
+          <t>proctalgias</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -7688,14 +7688,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>pleurodynia</t>
+          <t>proctalgia</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>podalgia</t>
+          <t>refer_pain</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -7705,14 +7705,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>podalgia</t>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>podalgias</t>
+          <t>refer_pained</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -7722,14 +7722,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>podalgia</t>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>proctalgia</t>
+          <t>refer_paining</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -7739,14 +7739,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>proctalgia</t>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>proctalgias</t>
+          <t>refer_pains</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -7756,14 +7756,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>proctalgia</t>
+          <t>refer_pain</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>referred_pain</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>refer_pained</t>
+          <t>referred_pained</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -7797,7 +7797,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>refer_paining</t>
+          <t>referred_paining</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7814,7 +7814,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>refer_pains</t>
+          <t>referred_pains</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -7831,7 +7831,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>referred_pain</t>
+          <t>referring_pain</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -7848,7 +7848,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>referred_pained</t>
+          <t>referring_pained</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -7865,7 +7865,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>referred_paining</t>
+          <t>referring_paining</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>referred_pains</t>
+          <t>referring_pains</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7899,7 +7899,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>referring_pain</t>
+          <t>refers_pain</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7916,7 +7916,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>referring_pained</t>
+          <t>refers_pained</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7933,7 +7933,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>referring_paining</t>
+          <t>refers_paining</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>referring_pains</t>
+          <t>refers_pains</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7967,7 +7967,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>refers_pain</t>
+          <t>renal_colic</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7977,14 +7977,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>renal_colic</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>refers_pained</t>
+          <t>renal_colics</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7994,14 +7994,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>renal_colic</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>refers_paining</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -8011,14 +8011,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>refers_pains</t>
+          <t>smarted</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -8028,14 +8028,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>refer_pain</t>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>renal_colic</t>
+          <t>smarter</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -8045,14 +8045,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>renal_colic</t>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>renal_colics</t>
+          <t>smartest</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -8062,14 +8062,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>renal_colic</t>
+          <t>smart</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smarting</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8086,7 +8086,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>smarted</t>
+          <t>smarts</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8103,7 +8103,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>smarter</t>
+          <t>somesthesia</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -8113,14 +8113,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>somesthesia</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>smartest</t>
+          <t>somesthesias</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -8130,14 +8130,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>somesthesia</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>smarting</t>
+          <t>sting</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8147,14 +8147,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>smarts</t>
+          <t>stinging</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8164,14 +8164,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>somesthesia</t>
+          <t>stings</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -8181,14 +8181,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>somesthesia</t>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>somesthesias</t>
+          <t>stitch</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8198,14 +8198,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>somesthesia</t>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>stitched</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -8215,14 +8215,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>stinging</t>
+          <t>stitches</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -8232,14 +8232,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>stings</t>
+          <t>stitching</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8249,14 +8249,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>stitch</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>stung</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -8266,14 +8266,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>sting</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>stitched</t>
+          <t>suffer</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8283,14 +8283,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>stitches</t>
+          <t>suffered</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8300,14 +8300,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>stitching</t>
+          <t>suffering</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -8317,14 +8317,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>suffer</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>stung</t>
+          <t>suffering</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8334,14 +8334,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>sting</t>
+          <t>suffering</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>sufferings</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8351,14 +8351,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>suffering</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>suffered</t>
+          <t>suffers</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8375,7 +8375,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>thermalgesia</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8385,14 +8385,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>thermalgesia</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>thermalgesias</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -8402,14 +8402,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>thermalgesia</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>sufferings</t>
+          <t>throb</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8419,14 +8419,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>suffers</t>
+          <t>throbbed</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -8436,14 +8436,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>thermalgesia</t>
+          <t>throbbing</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -8453,14 +8453,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>thermalgesia</t>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>thermalgesias</t>
+          <t>throbs</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -8470,14 +8470,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>thermalgesia</t>
+          <t>throb</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>torture</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -8487,14 +8487,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>throbbed</t>
+          <t>tortured</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -8504,14 +8504,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>throbbing</t>
+          <t>tortures</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -8521,14 +8521,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>throbs</t>
+          <t>torturing</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -8538,14 +8538,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>throb</t>
+          <t>torture</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>twinge</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -8555,14 +8555,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>tortured</t>
+          <t>twingeing</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -8572,14 +8572,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>tortures</t>
+          <t>twinges</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -8589,14 +8589,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>twinge</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>torturing</t>
+          <t>ulalgia</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>torture</t>
+          <t>ulalgia</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>ulalgias</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -8623,14 +8623,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>ulalgia</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>twingeing</t>
+          <t>urodynia</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -8640,14 +8640,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>urodynia</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>twinges</t>
+          <t>urodynias</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -8657,82 +8657,82 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>twinge</t>
+          <t>urodynia</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ulalgia</t>
+          <t>asleep</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Sleep</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>ulalgia</t>
+          <t>asleep</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ulalgias</t>
+          <t>bundle</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Sleep</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>ulalgia</t>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>urodynia</t>
+          <t>bundled</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Sleep</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>urodynia</t>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>urodynias</t>
+          <t>bundles</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Sleep</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>urodynia</t>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>asleep</t>
+          <t>bundling</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -8742,14 +8742,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>asleep</t>
+          <t>bundle</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>estivate</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -8759,14 +8759,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>bundled</t>
+          <t>estivated</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -8776,14 +8776,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>bundles</t>
+          <t>estivates</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -8793,14 +8793,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>bundling</t>
+          <t>estivating</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -8810,14 +8810,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>bundle</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>hibernate</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -8827,14 +8827,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>estivated</t>
+          <t>hibernated</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -8844,14 +8844,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>estivates</t>
+          <t>hibernates</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>estivating</t>
+          <t>hibernating</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -8878,14 +8878,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>kip</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -8895,14 +8895,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>hibernated</t>
+          <t>kipped</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -8912,14 +8912,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>hibernates</t>
+          <t>kipping</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -8929,14 +8929,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>hibernating</t>
+          <t>kips</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -8946,14 +8946,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>nap</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>kipped</t>
+          <t>napped</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -8980,14 +8980,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>kipping</t>
+          <t>napping</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -8997,14 +8997,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>kips</t>
+          <t>naps</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -9014,14 +9014,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>shuteye</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -9031,14 +9031,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>shuteye</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>napped</t>
+          <t>shuteyes</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9048,14 +9048,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>shuteye</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>napping</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -9065,14 +9065,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>sleep</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>naps</t>
+          <t>sleeping</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -9082,14 +9082,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>sleep</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>sleeping</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9099,14 +9099,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>sleeping</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>shuteyes</t>
+          <t>sleepings</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -9116,14 +9116,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>sleeping</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>sleeps</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -9140,7 +9140,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>slept</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -9149,74 +9149,6 @@
         </is>
       </c>
       <c r="C513" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>sleeping</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>Sleep</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>sleeping</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>sleepings</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>Sleep</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>sleeping</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>sleeps</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>Sleep</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>slept</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>Sleep</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
